--- a/Project1/TopTen_Number_Deaths_by_State/3_TopTen_Number_Deaths_by_State.xlsx
+++ b/Project1/TopTen_Number_Deaths_by_State/3_TopTen_Number_Deaths_by_State.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBTC406003ur\Documents\pegblaine\mblaine_project_1\Project1\TopTen_Number_Deaths_by_State\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegblaine\mblaine_project_1-master\Project1\TopTen_Number_Deaths_by_State\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20652" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="CancerType" sheetId="4" r:id="rId2"/>
+    <sheet name="State" sheetId="2" r:id="rId3"/>
+    <sheet name="DeathCount" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
-  <si>
-    <t>Cancer Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Lung and Bronchus</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>State AR</t>
+  </si>
+  <si>
+    <t>StateID</t>
+  </si>
+  <si>
+    <t>StateName</t>
+  </si>
+  <si>
+    <t>Abbrev</t>
+  </si>
+  <si>
+    <t>CancerTypeID</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CancerType</t>
+  </si>
+  <si>
+    <t>DeathCount</t>
   </si>
 </sst>
 </file>
@@ -125,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,301 +435,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>230</v>
+      </c>
+      <c r="G2">
+        <v>3009</v>
+      </c>
+      <c r="H2">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>678</v>
+      </c>
+      <c r="H3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>512</v>
+      </c>
+      <c r="H4">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <v>871</v>
+      </c>
+      <c r="H5">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>724</v>
+      </c>
+      <c r="H6">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>464</v>
+      </c>
+      <c r="H7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>244</v>
+      </c>
+      <c r="H9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>376</v>
+      </c>
+      <c r="H10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <v>311</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>303</v>
+      </c>
+      <c r="H12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>230</v>
-      </c>
-      <c r="F2">
-        <v>3009</v>
-      </c>
-      <c r="G2">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>678</v>
-      </c>
-      <c r="G3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>512</v>
-      </c>
-      <c r="G4">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>93</v>
-      </c>
-      <c r="F5">
-        <v>871</v>
-      </c>
-      <c r="G5">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>81</v>
-      </c>
-      <c r="F6">
-        <v>724</v>
-      </c>
-      <c r="G6">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>464</v>
-      </c>
-      <c r="G7">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>244</v>
-      </c>
-      <c r="G9">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>376</v>
-      </c>
-      <c r="G10">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>311</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>303</v>
-      </c>
-      <c r="G12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="C31">
         <v>368</v>
       </c>
     </row>
